--- a/natmiOut/OldD7/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.0868121476071</v>
+        <v>19.655164</v>
       </c>
       <c r="N2">
-        <v>18.0868121476071</v>
+        <v>58.965492</v>
       </c>
       <c r="O2">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313945</v>
       </c>
       <c r="P2">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313944</v>
       </c>
       <c r="Q2">
-        <v>1862.993683915791</v>
+        <v>2032.885228057954</v>
       </c>
       <c r="R2">
-        <v>1862.993683915791</v>
+        <v>18295.96705252158</v>
       </c>
       <c r="S2">
-        <v>0.09595010468544456</v>
+        <v>0.07231183055838583</v>
       </c>
       <c r="T2">
-        <v>0.09595010468544456</v>
+        <v>0.0723118305583858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H3">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.34027821876731</v>
+        <v>1.429363</v>
       </c>
       <c r="N3">
-        <v>1.34027821876731</v>
+        <v>4.288089</v>
       </c>
       <c r="O3">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286768</v>
       </c>
       <c r="P3">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286767</v>
       </c>
       <c r="Q3">
-        <v>138.0525122877306</v>
+        <v>147.8354964747484</v>
       </c>
       <c r="R3">
-        <v>138.0525122877306</v>
+        <v>1330.519468272735</v>
       </c>
       <c r="S3">
-        <v>0.007110143808031887</v>
+        <v>0.005258661543725916</v>
       </c>
       <c r="T3">
-        <v>0.007110143808031887</v>
+        <v>0.005258661543725915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H4">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.713770356807</v>
+        <v>22.55245966666666</v>
       </c>
       <c r="N4">
-        <v>19.713770356807</v>
+        <v>67.65737899999999</v>
       </c>
       <c r="O4">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567673</v>
       </c>
       <c r="P4">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567672</v>
       </c>
       <c r="Q4">
-        <v>2030.575059948126</v>
+        <v>2332.54538668512</v>
       </c>
       <c r="R4">
-        <v>2030.575059948126</v>
+        <v>20992.90848016608</v>
       </c>
       <c r="S4">
-        <v>0.1045810789675668</v>
+        <v>0.08297105239573836</v>
       </c>
       <c r="T4">
-        <v>0.1045810789675668</v>
+        <v>0.08297105239573833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H5">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.31183073967947</v>
+        <v>23.92250533333333</v>
       </c>
       <c r="N5">
-        <v>9.31183073967947</v>
+        <v>71.767516</v>
       </c>
       <c r="O5">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489707</v>
       </c>
       <c r="P5">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489706</v>
       </c>
       <c r="Q5">
-        <v>959.1453547556691</v>
+        <v>2474.245837392705</v>
       </c>
       <c r="R5">
-        <v>959.1453547556691</v>
+        <v>22268.21253653434</v>
       </c>
       <c r="S5">
-        <v>0.04939903875783841</v>
+        <v>0.08801148401489203</v>
       </c>
       <c r="T5">
-        <v>0.04939903875783841</v>
+        <v>0.08801148401489201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H6">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.0868121476071</v>
+        <v>19.655164</v>
       </c>
       <c r="N6">
-        <v>18.0868121476071</v>
+        <v>58.965492</v>
       </c>
       <c r="O6">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313945</v>
       </c>
       <c r="P6">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313944</v>
       </c>
       <c r="Q6">
-        <v>3894.831292504417</v>
+        <v>4248.081189453395</v>
       </c>
       <c r="R6">
-        <v>3894.831292504417</v>
+        <v>38232.73070508056</v>
       </c>
       <c r="S6">
-        <v>0.2005962089267266</v>
+        <v>0.1511086424999409</v>
       </c>
       <c r="T6">
-        <v>0.2005962089267266</v>
+        <v>0.1511086424999408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H7">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.34027821876731</v>
+        <v>1.429363</v>
       </c>
       <c r="N7">
-        <v>1.34027821876731</v>
+        <v>4.288089</v>
       </c>
       <c r="O7">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286768</v>
       </c>
       <c r="P7">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286767</v>
       </c>
       <c r="Q7">
-        <v>288.6167835722023</v>
+        <v>308.928995616657</v>
       </c>
       <c r="R7">
-        <v>288.6167835722023</v>
+        <v>2780.360960549913</v>
       </c>
       <c r="S7">
-        <v>0.01486468302969343</v>
+        <v>0.01098892395757385</v>
       </c>
       <c r="T7">
-        <v>0.01486468302969343</v>
+        <v>0.01098892395757384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H8">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.713770356807</v>
+        <v>22.55245966666666</v>
       </c>
       <c r="N8">
-        <v>19.713770356807</v>
+        <v>67.65737899999999</v>
       </c>
       <c r="O8">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567673</v>
       </c>
       <c r="P8">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567672</v>
       </c>
       <c r="Q8">
-        <v>4245.182017279709</v>
+        <v>4874.275263532426</v>
       </c>
       <c r="R8">
-        <v>4245.182017279709</v>
+        <v>43868.47737179184</v>
       </c>
       <c r="S8">
-        <v>0.2186403864293328</v>
+        <v>0.1733830135054925</v>
       </c>
       <c r="T8">
-        <v>0.2186403864293328</v>
+        <v>0.1733830135054924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H9">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.31183073967947</v>
+        <v>23.92250533333333</v>
       </c>
       <c r="N9">
-        <v>9.31183073967947</v>
+        <v>71.767516</v>
       </c>
       <c r="O9">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489707</v>
       </c>
       <c r="P9">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489706</v>
       </c>
       <c r="Q9">
-        <v>2005.218468540706</v>
+        <v>5170.383971923708</v>
       </c>
       <c r="R9">
-        <v>2005.218468540706</v>
+        <v>46533.45574731338</v>
       </c>
       <c r="S9">
-        <v>0.1032751337993072</v>
+        <v>0.1839159065840202</v>
       </c>
       <c r="T9">
-        <v>0.1032751337993072</v>
+        <v>0.1839159065840201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H10">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.0868121476071</v>
+        <v>19.655164</v>
       </c>
       <c r="N10">
-        <v>18.0868121476071</v>
+        <v>58.965492</v>
       </c>
       <c r="O10">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313945</v>
       </c>
       <c r="P10">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313944</v>
       </c>
       <c r="Q10">
-        <v>1078.956917701735</v>
+        <v>1407.4537164763</v>
       </c>
       <c r="R10">
-        <v>1078.956917701735</v>
+        <v>12667.0834482867</v>
       </c>
       <c r="S10">
-        <v>0.05556971561329542</v>
+        <v>0.05006458468972809</v>
       </c>
       <c r="T10">
-        <v>0.05556971561329542</v>
+        <v>0.05006458468972808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H11">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.34027821876731</v>
+        <v>1.429363</v>
       </c>
       <c r="N11">
-        <v>1.34027821876731</v>
+        <v>4.288089</v>
       </c>
       <c r="O11">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286768</v>
       </c>
       <c r="P11">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286767</v>
       </c>
       <c r="Q11">
-        <v>79.95341821335104</v>
+        <v>102.352860883975</v>
       </c>
       <c r="R11">
-        <v>79.95341821335104</v>
+        <v>921.1757479557751</v>
       </c>
       <c r="S11">
-        <v>0.004117855532073249</v>
+        <v>0.003640797144499218</v>
       </c>
       <c r="T11">
-        <v>0.004117855532073249</v>
+        <v>0.003640797144499217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H12">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.713770356807</v>
+        <v>22.55245966666666</v>
       </c>
       <c r="N12">
-        <v>19.713770356807</v>
+        <v>67.65737899999999</v>
       </c>
       <c r="O12">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567673</v>
       </c>
       <c r="P12">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567672</v>
       </c>
       <c r="Q12">
-        <v>1176.012042745432</v>
+        <v>1614.921308900392</v>
       </c>
       <c r="R12">
-        <v>1176.012042745432</v>
+        <v>14534.29178010352</v>
       </c>
       <c r="S12">
-        <v>0.06056836348236814</v>
+        <v>0.05744442157508887</v>
       </c>
       <c r="T12">
-        <v>0.06056836348236814</v>
+        <v>0.05744442157508886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H13">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.31183073967947</v>
+        <v>23.92250533333333</v>
       </c>
       <c r="N13">
-        <v>9.31183073967947</v>
+        <v>71.767516</v>
       </c>
       <c r="O13">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489707</v>
       </c>
       <c r="P13">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489706</v>
       </c>
       <c r="Q13">
-        <v>555.4911562662558</v>
+        <v>1713.026614218233</v>
       </c>
       <c r="R13">
-        <v>555.4911562662558</v>
+        <v>15417.2395279641</v>
       </c>
       <c r="S13">
-        <v>0.02860956269242782</v>
+        <v>0.0609341287740534</v>
       </c>
       <c r="T13">
-        <v>0.02860956269242782</v>
+        <v>0.06093412877405339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H14">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.0868121476071</v>
+        <v>19.655164</v>
       </c>
       <c r="N14">
-        <v>18.0868121476071</v>
+        <v>58.965492</v>
       </c>
       <c r="O14">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313945</v>
       </c>
       <c r="P14">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313944</v>
       </c>
       <c r="Q14">
-        <v>411.0823667364712</v>
+        <v>490.459199014472</v>
       </c>
       <c r="R14">
-        <v>411.0823667364712</v>
+        <v>4414.132791130248</v>
       </c>
       <c r="S14">
-        <v>0.02117205037421244</v>
+        <v>0.01744614108333964</v>
       </c>
       <c r="T14">
-        <v>0.02117205037421244</v>
+        <v>0.01744614108333964</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H15">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.34027821876731</v>
+        <v>1.429363</v>
       </c>
       <c r="N15">
-        <v>1.34027821876731</v>
+        <v>4.288089</v>
       </c>
       <c r="O15">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286768</v>
       </c>
       <c r="P15">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286767</v>
       </c>
       <c r="Q15">
-        <v>30.46223611766216</v>
+        <v>35.66717795287401</v>
       </c>
       <c r="R15">
-        <v>30.46223611766216</v>
+        <v>321.004601575866</v>
       </c>
       <c r="S15">
-        <v>0.001568902122254608</v>
+        <v>0.001268718417068695</v>
       </c>
       <c r="T15">
-        <v>0.001568902122254608</v>
+        <v>0.001268718417068695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H16">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.713770356807</v>
+        <v>22.55245966666666</v>
       </c>
       <c r="N16">
-        <v>19.713770356807</v>
+        <v>67.65737899999999</v>
       </c>
       <c r="O16">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567673</v>
       </c>
       <c r="P16">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567672</v>
       </c>
       <c r="Q16">
-        <v>448.0603496867564</v>
+        <v>562.7559914493472</v>
       </c>
       <c r="R16">
-        <v>448.0603496867564</v>
+        <v>5064.803923044125</v>
       </c>
       <c r="S16">
-        <v>0.02307653419816126</v>
+        <v>0.02001781278044759</v>
       </c>
       <c r="T16">
-        <v>0.02307653419816126</v>
+        <v>0.02001781278044759</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H17">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.31183073967947</v>
+        <v>23.92250533333333</v>
       </c>
       <c r="N17">
-        <v>9.31183073967947</v>
+        <v>71.767516</v>
       </c>
       <c r="O17">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489707</v>
       </c>
       <c r="P17">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489706</v>
       </c>
       <c r="Q17">
-        <v>211.6420178347072</v>
+        <v>596.9430122387226</v>
       </c>
       <c r="R17">
-        <v>211.6420178347072</v>
+        <v>5372.487110148504</v>
       </c>
       <c r="S17">
-        <v>0.01090023758126535</v>
+        <v>0.0212338804760051</v>
       </c>
       <c r="T17">
-        <v>0.01090023758126535</v>
+        <v>0.0212338804760051</v>
       </c>
     </row>
   </sheetData>
